--- a/diseaseyesno.xlsx
+++ b/diseaseyesno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya Mazumdar\Desktop\teeth disease prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B87167F-C158-4B42-815F-3D207AF09446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFF612B-FDB0-4CF3-91A0-EF2981238A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Models</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>CatBoost</t>
+  </si>
+  <si>
+    <t>ANN</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,6 +544,20 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
